--- a/Group_template.xlsx
+++ b/Group_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenny\Dropbox\2.PYTHON_PROJECTS\SPORTS_DATABASES\Maturity_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5FA4FC4C-714C-4271-8C2F-410155560046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E4336A-9574-4B03-9EFE-FBBC820F4A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D8AA693F-278A-49BD-93A7-C6609B309D7A}"/>
   </bookViews>
@@ -914,15 +914,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.21875" bestFit="1" customWidth="1"/>
@@ -936,10 +936,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -962,10 +962,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1">
+        <v>40586</v>
+      </c>
+      <c r="D2" s="1">
         <v>45696</v>
-      </c>
-      <c r="D2" s="1">
-        <v>40586</v>
       </c>
       <c r="E2">
         <v>50</v>
